--- a/Data/EU COUNTRIES_rail passengers_quarterly data since 2019-Q4.xlsx
+++ b/Data/EU COUNTRIES_rail passengers_quarterly data since 2019-Q4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\Schule\HSLU\Semester 6\WAM69 Python\Python\Project_Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1069408-80D5-4990-9FE3-C595D9804F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32139FC7-1692-45E1-9C74-6F0552574359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,7 +572,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Data/EU COUNTRIES_rail passengers_quarterly data since 2019-Q4.xlsx
+++ b/Data/EU COUNTRIES_rail passengers_quarterly data since 2019-Q4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\Schule\HSLU\Semester 6\WAM69 Python\Python\Project_Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32139FC7-1692-45E1-9C74-6F0552574359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968C8748-D4A1-4B83-A699-1C44664B0E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>2019-Q4</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Germany</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -582,7 +585,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>

--- a/Data/EU COUNTRIES_rail passengers_quarterly data since 2019-Q4.xlsx
+++ b/Data/EU COUNTRIES_rail passengers_quarterly data since 2019-Q4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\Schule\HSLU\Semester 6\WAM69 Python\Python\Project_Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968C8748-D4A1-4B83-A699-1C44664B0E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAD2049-0E88-4E59-9D53-BBD9698CD909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3">
         <v>47740</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <v>53537</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3">
         <v>743856</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4">
         <v>2147</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>12908</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4">
         <v>5253</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>165980</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4">
         <v>285299</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3">
         <v>5455</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4">
         <v>236562</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3">
         <v>4421</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4">
         <v>1173</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3">
         <v>6625</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4">
         <v>37202</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3">
         <v>102070</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3">
         <v>87787</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4">
         <v>49015</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3">
         <v>17049</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="4">
         <v>3529</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3">
         <v>20628</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="4">
         <v>25142</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3">
         <v>68898</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="4">
         <v>21592</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3">
         <v>131313</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="4">
         <v>472741</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="3">
         <v>211</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4">
         <v>148</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>1</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="4">
         <v>51544</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>1</v>

--- a/Data/EU COUNTRIES_rail passengers_quarterly data since 2019-Q4.xlsx
+++ b/Data/EU COUNTRIES_rail passengers_quarterly data since 2019-Q4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\Schule\HSLU\Semester 6\WAM69 Python\Python\Project_Python\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hsluzern-my.sharepoint.com/personal/cristiano_antunes_stud_hslu_ch/Documents/International Business Administration IBA/Semester 06/Programming with Phyton/Project_Python/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAD2049-0E88-4E59-9D53-BBD9698CD909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4650" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -257,7 +257,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -575,16 +575,16 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.52734375" customWidth="1"/>
     <col min="2" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -671,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>13671</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
